--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272538.2734106903</v>
+        <v>-246625.1170890929</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004075</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8937743.694037234</v>
+        <v>8990427.920344751</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -671,10 +671,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>98.93871561313621</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>33.65210386036581</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>104.7496945893493</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -871,7 +871,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>36.22386901895887</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>321.0498653979684</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>301.2231388236591</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>72.79283903554575</v>
+        <v>144.493775385548</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1184,19 +1184,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>111.8759844249748</v>
+        <v>348.1492949420029</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,10 +1348,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>51.41932006977583</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>127.2700184681895</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>130.9097137072162</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>179.086131146671</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791324924</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>241.2005985405653</v>
       </c>
       <c r="U16" t="n">
-        <v>172.6623007436916</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>163.1909489378248</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800271</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>164.219212870488</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>125.1716544454882</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>64.34965323462988</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.45405731752575</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3004,13 +3004,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>181.111242672114</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413112</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496634</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385524</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561368</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724684</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925387</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169443</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174058</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267642</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043295</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477349</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245956</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930497</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628598</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>147.983502531745</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730226</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591138</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856831</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277853</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432392</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934334</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762358</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185818</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006782</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>253.0704300308239</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811741</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402853</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413112</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496634</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385524</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545403</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>407.3530449561368</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242213</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724684</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925387</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169443</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174058</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267642</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043295</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477349</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245956</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930497</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628598</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>147.983502531745</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730226</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591138</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856831</v>
+        <v>24.34318456170374</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277817</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432392</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742938096</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762358</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185818</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006782</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095264</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>253.0704300308239</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811741</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402853</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542.9615250231906</v>
+        <v>1006.097664778443</v>
       </c>
       <c r="C2" t="n">
-        <v>508.8594562470179</v>
+        <v>567.9551919618659</v>
       </c>
       <c r="D2" t="n">
-        <v>476.9900754618665</v>
+        <v>536.0858111767145</v>
       </c>
       <c r="E2" t="n">
-        <v>447.2557346605657</v>
+        <v>506.3514703754137</v>
       </c>
       <c r="F2" t="n">
-        <v>423.4287091101775</v>
+        <v>482.5244448250255</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>81.12661344828939</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.13458934690978</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404979</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269677</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990837</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949432</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702489</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2335.889998702489</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2115.822771575528</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1856.600468892545</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1856.600468892545</v>
       </c>
       <c r="W2" t="n">
-        <v>988.6088745483262</v>
+        <v>1855.785418343982</v>
       </c>
       <c r="X2" t="n">
-        <v>973.5068151680409</v>
+        <v>1840.683358963697</v>
       </c>
       <c r="Y2" t="n">
-        <v>565.2206914676943</v>
+        <v>1432.39723526335</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653426</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>446.4330838019849</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485381</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.2223802754918</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>173.8385418916534</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>88.45345215783732</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404979</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450738</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007197</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>975.4725727795858</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.679225265885</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.0731144331462</v>
+        <v>634.7260756085655</v>
       </c>
       <c r="C4" t="n">
-        <v>675.0731144331462</v>
+        <v>634.7260756085655</v>
       </c>
       <c r="D4" t="n">
-        <v>509.1951216346689</v>
+        <v>634.7260756085655</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>528.9183032960914</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>352.2112492578476</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>186.6199742836753</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404979</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404979</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>133.2974851387396</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>408.0559397098752</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>826.2658214778362</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>958.2622774843891</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1400.521080642034</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1820.190329867815</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2167.697223838157</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702489</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2314.472177407861</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2155.230808705858</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1909.351362284313</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1630.918361537418</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1343.962853407849</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1071.93644899414</v>
       </c>
       <c r="X4" t="n">
-        <v>675.0731144331462</v>
+        <v>826.5446943275526</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.0731144331462</v>
+        <v>826.5446943275526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1560.335719634342</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.8458429112338</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>173.8458429112338</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>173.8458429112338</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>958.7861344791625</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>918.6836726774216</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>646.6572682637131</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>401.2655135971256</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.8458429112338</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.5080193424936</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>126.4059505663209</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>94.53656978116949</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>64.80222897986873</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>983.2980333222199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>983.2980333222199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>983.2980333222199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>983.2980333222199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>983.2980333222199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1490.366175762041</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1997.434318201863</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474026</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1965.108297657863</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1745.041070530902</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1485.818767847919</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1123.201817781745</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1010.195772908033</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>591.0533094873439</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>182.7671857869973</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207734</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039689</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309226</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326805</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993811</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561505</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.665343995972</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213157</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005365</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.6111999772206</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>376.6111999772206</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7332071787433</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>40.97520342948052</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>40.97520342948052</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>40.97520342948052</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>40.97520342948052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>127.5548885941704</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>140.9455952773941</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>559.1554770453552</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1018.639344226268</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1460.898147383913</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1880.567396609694</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1880.567396609694</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474026</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474026</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1889.518802772023</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1643.639356350478</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1365.206355603583</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1313.267648462396</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1041.241244048687</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>795.8494893820996</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>568.4298186962078</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1509.326570953293</v>
+        <v>2217.253649363488</v>
       </c>
       <c r="C11" t="n">
-        <v>1071.184098136716</v>
+        <v>1779.111176546911</v>
       </c>
       <c r="D11" t="n">
-        <v>635.2743133111603</v>
+        <v>1343.201391721355</v>
       </c>
       <c r="E11" t="n">
-        <v>201.4995684694554</v>
+        <v>909.4266468796502</v>
       </c>
       <c r="F11" t="n">
-        <v>201.4995684694554</v>
+        <v>481.5592172888579</v>
       </c>
       <c r="G11" t="n">
-        <v>201.4995684694554</v>
+        <v>80.1613859121218</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916295</v>
+        <v>80.1613859121218</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916295</v>
+        <v>80.1613859121218</v>
       </c>
       <c r="J11" t="n">
-        <v>72.94399425916295</v>
+        <v>515.4160733650397</v>
       </c>
       <c r="K11" t="n">
-        <v>907.2942862173409</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>907.2942862173409</v>
+        <v>2341.763515985725</v>
       </c>
       <c r="M11" t="n">
-        <v>907.2942862173409</v>
+        <v>2341.763515985725</v>
       </c>
       <c r="N11" t="n">
-        <v>1200.555058455958</v>
+        <v>2341.763515985725</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413099</v>
+        <v>2464.106570061042</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246495</v>
+        <v>3292.416444894438</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.04564820509</v>
+        <v>3838.915230853033</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958147</v>
+        <v>4008.06929560609</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.199712958147</v>
+        <v>4008.06929560609</v>
       </c>
       <c r="T11" t="n">
-        <v>3427.132485831186</v>
+        <v>4008.06929560609</v>
       </c>
       <c r="U11" t="n">
-        <v>3167.910183148203</v>
+        <v>4008.06929560609</v>
       </c>
       <c r="V11" t="n">
-        <v>3167.910183148203</v>
+        <v>3875.837261558398</v>
       </c>
       <c r="W11" t="n">
-        <v>2763.054728559236</v>
+        <v>3470.981806969431</v>
       </c>
       <c r="X11" t="n">
-        <v>2343.912265138547</v>
+        <v>3051.839343548742</v>
       </c>
       <c r="Y11" t="n">
-        <v>1935.6261414382</v>
+        <v>2643.553219848395</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504557</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>472.659278087098</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>384.7863808866101</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>290.6659662135638</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>207.2821278297254</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>121.8970380959093</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916295</v>
+        <v>80.1613859121218</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962055</v>
+        <v>106.2250590725794</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011556</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011556</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011556</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011556</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011556</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011556</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1619.010977643632</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1736.183755737972</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1672.728318186355</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516956</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1366.213127516925</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1167.095609578924</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121181</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509981</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.4196403302188</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1152.002154871044</v>
+        <v>930.6574229890529</v>
       </c>
       <c r="C13" t="n">
-        <v>979.4404433542693</v>
+        <v>758.0957114722778</v>
       </c>
       <c r="D13" t="n">
-        <v>813.562450555792</v>
+        <v>592.2177186738006</v>
       </c>
       <c r="E13" t="n">
-        <v>643.8044468065293</v>
+        <v>422.4597149245378</v>
       </c>
       <c r="F13" t="n">
-        <v>467.0973927682854</v>
+        <v>245.7526608862941</v>
       </c>
       <c r="G13" t="n">
-        <v>301.5061177941131</v>
+        <v>80.16138591212166</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6039434844876</v>
+        <v>80.1613859121218</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916295</v>
+        <v>80.1613859121218</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238528</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>441.4995256479472</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1754.234686101507</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.362235459959</v>
+        <v>2678.581826772237</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.482789038414</v>
+        <v>2432.702380350692</v>
       </c>
       <c r="U13" t="n">
-        <v>2103.58770707208</v>
+        <v>2154.269379603797</v>
       </c>
       <c r="V13" t="n">
-        <v>1816.632198942511</v>
+        <v>1867.313871474228</v>
       </c>
       <c r="W13" t="n">
-        <v>1816.632198942511</v>
+        <v>1595.287467060519</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.240444275923</v>
+        <v>1349.895712393932</v>
       </c>
       <c r="Y13" t="n">
-        <v>1343.820773590031</v>
+        <v>1122.47604170804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436407</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5303,25 +5303,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2316.042113248783</v>
       </c>
       <c r="U16" t="n">
-        <v>2117.975449367836</v>
+        <v>2037.609112501888</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,19 +5516,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>831.0115848906041</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324586</v>
+        <v>831.0115848906041</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>661.2535811413413</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477063</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309313</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5926,34 +5926,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176951</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878942</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.993304878942</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066693</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.79833832588</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876362</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6473,16 +6473,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1565.470477009816</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X31" t="n">
-        <v>1320.078722343228</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1092.659051657336</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206709</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197253</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673519</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403412</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750115</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574024</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397569</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>905.66490829367</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>756.186622908069</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716825</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463149</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850189</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882662</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758677</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156104</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361806</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461498</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579746</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290619</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.47362528195</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947932</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231239</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230407</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976695</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.24582370368</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835857</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197253</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673519</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403412</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574024</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>811.7546776883912</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936666</v>
+        <v>639.192966171616</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080656</v>
+        <v>473.3149733731386</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>303.5569696238758</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>126.8499155856319</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882662</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758677</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823633</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156104</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361806</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461498</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579742</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290615</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947928</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231235</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230403</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703676</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>565.789783722226</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756223</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934026023</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>133.3297535419725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,19 +8374,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>224.947097744021</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685066</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685067</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685067</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>51.84429623450842</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685066</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920769</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685067</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>13.52596634669067</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,7 +8626,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>296.2230022612293</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395367</v>
+        <v>123.5788425003207</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,22 +9164,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.0908366609692</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.0908366609692</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>158.9688345430264</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23309,13 +23309,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>228.0810668582955</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>96.56253959275475</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.094790924582867e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.198091796324334e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.220053416763989</v>
       </c>
       <c r="U16" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>11.74903456003653</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.7661826744334</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>160.7958207444029</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142718</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>88.19489769745738</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.573461526684696e-12</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627269</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-3.75877107217093e-12</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>760591.7614241585</v>
+        <v>770417.0039240163</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760591.7614241585</v>
+        <v>775557.5638933593</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766000.077090857</v>
+        <v>775557.5638933593</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621740.2749655653</v>
+        <v>663628.9645235039</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791890.977663686</v>
+        <v>791890.9776636861</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791890.9776636859</v>
+        <v>791890.977663686</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791890.977663686</v>
+        <v>791890.9776636861</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791890.9776636857</v>
+        <v>791890.9776636859</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801658.0284492529</v>
+        <v>791890.9776636859</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801658.0284492529</v>
+        <v>791890.9776636859</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801658.0284492528</v>
+        <v>791890.9776636859</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>214458.9279561634</v>
       </c>
       <c r="E2" t="n">
-        <v>165461.4528861919</v>
+        <v>176609.1357898595</v>
       </c>
       <c r="F2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="G2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="H2" t="n">
         <v>210743.033654941</v>
@@ -26338,22 +26338,22 @@
         <v>210743.033654941</v>
       </c>
       <c r="K2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="L2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="M2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
-        <v>214458.9279561635</v>
+        <v>210743.033654941</v>
       </c>
       <c r="O2" t="n">
-        <v>214458.9279561635</v>
+        <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>214458.9279561634</v>
+        <v>210743.033654941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087936</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.199638894</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477418</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543115</v>
+        <v>99874.9731773081</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.482754056</v>
+        <v>79150.8532446099</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051285</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773536</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401246</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400223</v>
+        <v>83359.26563805065</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716087</v>
+        <v>67659.41322128731</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.145141455743994e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>179242.2862846094</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>191253.6420962579</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>63940.95018941454</v>
+        <v>68248.86254505586</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26451,13 +26451,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500378</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500378</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500368</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027784</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.7546064052</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696383</v>
+        <v>60922.65329321257</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193118.1336826356</v>
+        <v>-229619.1023175174</v>
       </c>
       <c r="C6" t="n">
-        <v>-50926.8330229257</v>
+        <v>-52006.88450404668</v>
       </c>
       <c r="D6" t="n">
-        <v>-68866.03954127379</v>
+        <v>-25016.68486515268</v>
       </c>
       <c r="E6" t="n">
-        <v>-73231.65329449793</v>
+        <v>-52673.91442675648</v>
       </c>
       <c r="F6" t="n">
-        <v>-53415.25917395041</v>
+        <v>-27588.8540038869</v>
       </c>
       <c r="G6" t="n">
-        <v>51585.22358010558</v>
+        <v>51561.99924072295</v>
       </c>
       <c r="H6" t="n">
-        <v>51585.22358010562</v>
+        <v>51561.99924072298</v>
       </c>
       <c r="I6" t="n">
-        <v>51585.22358010559</v>
+        <v>51561.99924072297</v>
       </c>
       <c r="J6" t="n">
-        <v>-59429.24176488459</v>
+        <v>-101230.9014644056</v>
       </c>
       <c r="K6" t="n">
-        <v>51585.22358010559</v>
+        <v>30060.77984298757</v>
       </c>
       <c r="L6" t="n">
-        <v>29339.99631609314</v>
+        <v>51561.99924072294</v>
       </c>
       <c r="M6" t="n">
-        <v>-47999.15829389662</v>
+        <v>-31797.26639732768</v>
       </c>
       <c r="N6" t="n">
-        <v>-43755.60879209082</v>
+        <v>-16097.41398056433</v>
       </c>
       <c r="O6" t="n">
-        <v>44617.53884507006</v>
+        <v>51561.99924072304</v>
       </c>
       <c r="P6" t="n">
-        <v>44617.5388450702</v>
+        <v>51561.99924072294</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756223</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685066</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395368</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756223</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223464</v>
       </c>
       <c r="D4" t="n">
-        <v>87.8941853484022</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710303</v>
+        <v>334.5021172936656</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452085</v>
+        <v>276.2431794832228</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756223</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223464</v>
       </c>
       <c r="L4" t="n">
-        <v>87.8941853484022</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710303</v>
+        <v>334.5021172936656</v>
       </c>
       <c r="N4" t="n">
-        <v>307.783867708186</v>
+        <v>276.2431794832228</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756223</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223464</v>
       </c>
       <c r="L4" t="n">
-        <v>87.8941853484022</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710303</v>
+        <v>334.5021172936656</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452085</v>
+        <v>276.2431794832228</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>298.4451374498325</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252.5867491508501</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.3107291224208</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>206.7139681009628</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>112.7111826904425</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,7 +27670,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>113.7278999628233</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>211.2931140127281</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>288.9309156181022</v>
+        <v>52.65760510107407</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>232.666632978498</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.371263197260939e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.479488779907115e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.732907316589262e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.2357103387475</v>
+        <v>-6.431426819679993e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.2357103387475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>565.789783722226</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756223</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934026023</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>133.3297535419725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>224.947097744021</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685066</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685067</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685067</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>51.84429623450842</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685066</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920769</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685067</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>13.52596634669067</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>296.2230022612293</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395367</v>
+        <v>123.5788425003207</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35884,22 +35884,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778282</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>438.669934346789</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033062</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,16 +37789,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.0908366609692</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778282</v>
+        <v>87.45422743908058</v>
       </c>
       <c r="K43" t="n">
-        <v>293.769502834844</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L43" t="n">
-        <v>438.669934346789</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033062</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.0908366609692</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
